--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437046.732163672</v>
+        <v>3434474.777645768</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>96.95377689311815</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>32.49138749858555</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.1401982465205</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>94.6556856926066</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670954</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>114.5006452705937</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>46.13809394730882</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.345729894537</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.080031287786</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.291778689542</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>723.3058738999346</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>305.3420657981214</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>517.7458231623355</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>517.7458231623355</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>517.7458231623355</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.2608351981287</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2655.593335213656</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2655.593335213656</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2655.593335213656</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2401.831549851747</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2070.768662508176</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1718.000007238062</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.000007238062</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.86067526225</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>632.5171804765284</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138415</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3584617859347</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>747.3584617859347</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7202,10 +7202,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
@@ -7412,19 +7412,19 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.2291039219418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31.93331737597549</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.1277423712567</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210053</v>
@@ -26329,31 +26329,31 @@
         <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.777757709</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080588</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5067.592601670458</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5067.592601670461</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="F4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5067.592601670386</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5067.592601670385</v>
-      </c>
       <c r="I4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670419</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670385</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="O4" t="n">
         <v>5067.59260167042</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670414</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.8703278309</v>
+        <v>-134953.8703278308</v>
       </c>
       <c r="C6" t="n">
+        <v>455014.0088867138</v>
+      </c>
+      <c r="D6" t="n">
         <v>455014.0088867137</v>
       </c>
-      <c r="D6" t="n">
-        <v>455014.0088867135</v>
-      </c>
       <c r="E6" t="n">
-        <v>-324130.9604622815</v>
+        <v>-324165.6983877168</v>
       </c>
       <c r="F6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="G6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.079369992</v>
       </c>
       <c r="H6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="I6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699924</v>
       </c>
       <c r="J6" t="n">
-        <v>443818.5981028348</v>
+        <v>443783.8601773988</v>
       </c>
       <c r="K6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699925</v>
       </c>
       <c r="L6" t="n">
-        <v>620241.817295428</v>
+        <v>620207.079369992</v>
       </c>
       <c r="M6" t="n">
-        <v>496033.3065873688</v>
+        <v>495998.5686619335</v>
       </c>
       <c r="N6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.0793699925</v>
       </c>
       <c r="O6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699925</v>
       </c>
       <c r="P6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699921</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,25 +26790,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>226.968995871239</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>179.6541514514334</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.33820432829124</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>191.8673126439844</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.281837992243618e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31285,7 +31285,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,7 +31297,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,10 +33968,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34226,13 +34226,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394598</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
